--- a/Mining/film_mining.xlsx
+++ b/Mining/film_mining.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK1_4\BI\BI.07_Project\Mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08AE18E-8588-4535-8498-AA72971B8C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C04384-5AB3-4F5F-86D3-45045FF03311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>Cinema.Cinema Name</t>
   </si>
@@ -194,9 +194,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +563,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,13 +593,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
@@ -611,13 +610,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3">
@@ -628,13 +627,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
@@ -645,13 +644,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
@@ -662,13 +661,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6">
@@ -679,13 +678,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
@@ -696,13 +695,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
@@ -713,13 +712,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
@@ -730,13 +729,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10">
@@ -747,13 +746,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
@@ -764,13 +763,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
@@ -781,13 +780,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13">
@@ -852,13 +851,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2">
@@ -873,18 +872,18 @@
       <c r="G2">
         <v>569</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3">
@@ -899,18 +898,18 @@
       <c r="G3">
         <v>2018</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4">
@@ -925,18 +924,18 @@
       <c r="G4">
         <v>779</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5">
@@ -951,18 +950,18 @@
       <c r="G5">
         <v>7595</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6">
@@ -977,18 +976,18 @@
       <c r="G6">
         <v>9885</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7">
@@ -1003,18 +1002,18 @@
       <c r="G7">
         <v>9605</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8">
@@ -1029,18 +1028,18 @@
       <c r="G8">
         <v>3049</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
@@ -1055,18 +1054,18 @@
       <c r="G9">
         <v>730</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
@@ -1081,18 +1080,18 @@
       <c r="G10">
         <v>3200</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11">
@@ -1107,18 +1106,18 @@
       <c r="G11">
         <v>23264</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12">
@@ -1133,18 +1132,18 @@
       <c r="G12">
         <v>25116</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13">
@@ -1159,18 +1158,18 @@
       <c r="G13">
         <v>20387</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14">
@@ -1185,18 +1184,18 @@
       <c r="G14">
         <v>7817</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
       <c r="D15">
@@ -1211,18 +1210,18 @@
       <c r="G15">
         <v>199</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16">
@@ -1237,18 +1236,18 @@
       <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17">
@@ -1263,18 +1262,18 @@
       <c r="G17">
         <v>1563</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18">
@@ -1289,18 +1288,18 @@
       <c r="G18">
         <v>729</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19">
@@ -1315,18 +1314,18 @@
       <c r="G19">
         <v>1712</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="D20">
@@ -1341,18 +1340,18 @@
       <c r="G20">
         <v>186</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
       <c r="D21">
@@ -1367,18 +1366,18 @@
       <c r="G21">
         <v>7321</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
@@ -1393,18 +1392,18 @@
       <c r="G22">
         <v>11372</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23">
@@ -1419,18 +1418,18 @@
       <c r="G23">
         <v>43307</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24">
@@ -1445,18 +1444,18 @@
       <c r="G24">
         <v>39206</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
@@ -1471,18 +1470,18 @@
       <c r="G25">
         <v>19112</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26">
@@ -1497,18 +1496,18 @@
       <c r="G26">
         <v>12215</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
@@ -1523,18 +1522,18 @@
       <c r="G27">
         <v>15513</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
@@ -1549,7 +1548,7 @@
       <c r="G28">
         <v>438</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>32</v>
       </c>
     </row>
